--- a/Designdoc/0.1/EVECard-模式.xlsx
+++ b/Designdoc/0.1/EVECard-模式.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="18000" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分工" sheetId="18" r:id="rId1"/>
-    <sheet name="模式" sheetId="14" r:id="rId2"/>
-    <sheet name="卡牌与场景图" sheetId="2" r:id="rId3"/>
-    <sheet name="卡牌类型综述" sheetId="21" r:id="rId4"/>
-    <sheet name="UML" sheetId="17" r:id="rId5"/>
-    <sheet name="触发机制" sheetId="20" r:id="rId6"/>
+    <sheet name="游戏介绍" sheetId="2" r:id="rId2"/>
+    <sheet name="卡牌类型综述" sheetId="21" r:id="rId3"/>
+    <sheet name="UML" sheetId="17" r:id="rId4"/>
+    <sheet name="触发机制" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,19 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
-  <si>
-    <t>使用卡牌会消耗 ISK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有效值归0时，玩家输，游戏结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌获取：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>每个玩家回合有 180s 的出牌时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,22 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬性规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取ISK的途径在于玩家所选的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效值取决于所选的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有效值归0时，卡牌移出游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,214 +50,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家之间无法交流，不允许旁观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取的ISK可以累积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取卡牌的途径在于玩家所选的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家手里一般最多可以有10张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法查看对方的ISK数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触发效果、释放效果的动画阶段不会计时，不会影响玩家的选择时间（180s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以看到对面的手牌数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>依赖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>放置位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作用目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>样例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>舰船</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>场地战斗区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场上-舰船等级限制
-场上-舰船数量限制
-场上-舰船位置限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>舰船</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单位牌上</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1600mm钢板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备于舰船。舰船损毁后此装备也移入坟场，并脱离原舰船</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰船-舰船类别限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>给一艘或数艘舰船附加状态。舰船损毁后此状态牌也移入坟场，并脱离原舰船</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>舰船、无人机、装备、环境、pos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>瞬时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>按照牌面说明生效。使用后移入坟场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>环境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>场地环境牌区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>永久或受限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>红巨星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>环境影响。效果结束后移入坟场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pos装备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>场地pos区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>场上-pos位置限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器阵列</t>
   </si>
   <si>
     <t>被击毁后移入坟场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>装备-同类装备限制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>游戏硬性规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐久降为0时移入坟场；
-入场时不可攻击；
-一回合只能进行一次攻击；
-打出的舰船卡牌如果进行移动，本回合将无法攻击；
-哨岗无人机无法移动；
-攻击时有个最大攻击距离限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>游戏软性规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超载状态、毁电状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>当一方POS有效值归0时，该玩家输，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取的ISK可以积累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到对面的手牌数量 和 ISK数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家手里一般最多可以有10张手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰-导弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">有效降为0时移入坟场；
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备-同类装备限制（会在装备牌详细标注）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场上-舰船数量限制
+场上-舰船位置限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一艘或数艘舰船附加状态。舰船损毁后此状态牌也移入坟场，并脱离原舰船；此状态会被某些装备卡牌解除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁电状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">舰船-舰船类别限制              </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -317,48 +267,69 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -367,21 +338,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6129,6 +6127,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6183,6 +6184,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6214,15 +6218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6231,7 +6235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076449" y="7362825"/>
+          <a:off x="2095499" y="8010525"/>
           <a:ext cx="1533525" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -6240,8 +6244,8 @@
             <a:gd name="adj2" fmla="val 105865"/>
             <a:gd name="adj3" fmla="val 21875"/>
             <a:gd name="adj4" fmla="val 123456"/>
-            <a:gd name="adj5" fmla="val -26042"/>
-            <a:gd name="adj6" fmla="val 142222"/>
+            <a:gd name="adj5" fmla="val 71875"/>
+            <a:gd name="adj6" fmla="val 140979"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -6272,6 +6276,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="535353"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>拥有的</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
@@ -6568,6 +6582,354 @@
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>时显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="314326"/>
+          <a:ext cx="971550" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2X2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="线形标注 2 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11363325" y="1066801"/>
+          <a:ext cx="2781300" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -4289"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -143382"/>
+            <a:gd name="adj6" fmla="val -62194"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>占用卡牌位，只在卡牌位大于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>1X1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矩形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="11353800"/>
+          <a:ext cx="285750" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矩形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="8315325"/>
+          <a:ext cx="285750" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="线形标注 2 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095499" y="6991350"/>
+          <a:ext cx="1533525" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21875"/>
+            <a:gd name="adj2" fmla="val 105865"/>
+            <a:gd name="adj3" fmla="val 21875"/>
+            <a:gd name="adj4" fmla="val 123456"/>
+            <a:gd name="adj5" fmla="val 48958"/>
+            <a:gd name="adj6" fmla="val 139737"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="535353"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>POS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="535353"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>有效值</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12756,7 +13118,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -12773,101 +13135,913 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A2:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="9" customWidth="1"/>
+    <col min="9" max="256" width="9" style="2"/>
+    <col min="257" max="257" width="10.125" style="2" customWidth="1"/>
+    <col min="258" max="258" width="9.875" style="2" customWidth="1"/>
+    <col min="259" max="259" width="10.625" style="2" customWidth="1"/>
+    <col min="260" max="260" width="13.625" style="2" customWidth="1"/>
+    <col min="261" max="261" width="10.625" style="2" customWidth="1"/>
+    <col min="262" max="262" width="22.5" style="2" customWidth="1"/>
+    <col min="263" max="263" width="13.75" style="2" customWidth="1"/>
+    <col min="264" max="264" width="38.5" style="2" customWidth="1"/>
+    <col min="265" max="512" width="9" style="2"/>
+    <col min="513" max="513" width="10.125" style="2" customWidth="1"/>
+    <col min="514" max="514" width="9.875" style="2" customWidth="1"/>
+    <col min="515" max="515" width="10.625" style="2" customWidth="1"/>
+    <col min="516" max="516" width="13.625" style="2" customWidth="1"/>
+    <col min="517" max="517" width="10.625" style="2" customWidth="1"/>
+    <col min="518" max="518" width="22.5" style="2" customWidth="1"/>
+    <col min="519" max="519" width="13.75" style="2" customWidth="1"/>
+    <col min="520" max="520" width="38.5" style="2" customWidth="1"/>
+    <col min="521" max="768" width="9" style="2"/>
+    <col min="769" max="769" width="10.125" style="2" customWidth="1"/>
+    <col min="770" max="770" width="9.875" style="2" customWidth="1"/>
+    <col min="771" max="771" width="10.625" style="2" customWidth="1"/>
+    <col min="772" max="772" width="13.625" style="2" customWidth="1"/>
+    <col min="773" max="773" width="10.625" style="2" customWidth="1"/>
+    <col min="774" max="774" width="22.5" style="2" customWidth="1"/>
+    <col min="775" max="775" width="13.75" style="2" customWidth="1"/>
+    <col min="776" max="776" width="38.5" style="2" customWidth="1"/>
+    <col min="777" max="1024" width="9" style="2"/>
+    <col min="1025" max="1025" width="10.125" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="9.875" style="2" customWidth="1"/>
+    <col min="1027" max="1027" width="10.625" style="2" customWidth="1"/>
+    <col min="1028" max="1028" width="13.625" style="2" customWidth="1"/>
+    <col min="1029" max="1029" width="10.625" style="2" customWidth="1"/>
+    <col min="1030" max="1030" width="22.5" style="2" customWidth="1"/>
+    <col min="1031" max="1031" width="13.75" style="2" customWidth="1"/>
+    <col min="1032" max="1032" width="38.5" style="2" customWidth="1"/>
+    <col min="1033" max="1280" width="9" style="2"/>
+    <col min="1281" max="1281" width="10.125" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="9.875" style="2" customWidth="1"/>
+    <col min="1283" max="1283" width="10.625" style="2" customWidth="1"/>
+    <col min="1284" max="1284" width="13.625" style="2" customWidth="1"/>
+    <col min="1285" max="1285" width="10.625" style="2" customWidth="1"/>
+    <col min="1286" max="1286" width="22.5" style="2" customWidth="1"/>
+    <col min="1287" max="1287" width="13.75" style="2" customWidth="1"/>
+    <col min="1288" max="1288" width="38.5" style="2" customWidth="1"/>
+    <col min="1289" max="1536" width="9" style="2"/>
+    <col min="1537" max="1537" width="10.125" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="9.875" style="2" customWidth="1"/>
+    <col min="1539" max="1539" width="10.625" style="2" customWidth="1"/>
+    <col min="1540" max="1540" width="13.625" style="2" customWidth="1"/>
+    <col min="1541" max="1541" width="10.625" style="2" customWidth="1"/>
+    <col min="1542" max="1542" width="22.5" style="2" customWidth="1"/>
+    <col min="1543" max="1543" width="13.75" style="2" customWidth="1"/>
+    <col min="1544" max="1544" width="38.5" style="2" customWidth="1"/>
+    <col min="1545" max="1792" width="9" style="2"/>
+    <col min="1793" max="1793" width="10.125" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="9.875" style="2" customWidth="1"/>
+    <col min="1795" max="1795" width="10.625" style="2" customWidth="1"/>
+    <col min="1796" max="1796" width="13.625" style="2" customWidth="1"/>
+    <col min="1797" max="1797" width="10.625" style="2" customWidth="1"/>
+    <col min="1798" max="1798" width="22.5" style="2" customWidth="1"/>
+    <col min="1799" max="1799" width="13.75" style="2" customWidth="1"/>
+    <col min="1800" max="1800" width="38.5" style="2" customWidth="1"/>
+    <col min="1801" max="2048" width="9" style="2"/>
+    <col min="2049" max="2049" width="10.125" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="9.875" style="2" customWidth="1"/>
+    <col min="2051" max="2051" width="10.625" style="2" customWidth="1"/>
+    <col min="2052" max="2052" width="13.625" style="2" customWidth="1"/>
+    <col min="2053" max="2053" width="10.625" style="2" customWidth="1"/>
+    <col min="2054" max="2054" width="22.5" style="2" customWidth="1"/>
+    <col min="2055" max="2055" width="13.75" style="2" customWidth="1"/>
+    <col min="2056" max="2056" width="38.5" style="2" customWidth="1"/>
+    <col min="2057" max="2304" width="9" style="2"/>
+    <col min="2305" max="2305" width="10.125" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="9.875" style="2" customWidth="1"/>
+    <col min="2307" max="2307" width="10.625" style="2" customWidth="1"/>
+    <col min="2308" max="2308" width="13.625" style="2" customWidth="1"/>
+    <col min="2309" max="2309" width="10.625" style="2" customWidth="1"/>
+    <col min="2310" max="2310" width="22.5" style="2" customWidth="1"/>
+    <col min="2311" max="2311" width="13.75" style="2" customWidth="1"/>
+    <col min="2312" max="2312" width="38.5" style="2" customWidth="1"/>
+    <col min="2313" max="2560" width="9" style="2"/>
+    <col min="2561" max="2561" width="10.125" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="9.875" style="2" customWidth="1"/>
+    <col min="2563" max="2563" width="10.625" style="2" customWidth="1"/>
+    <col min="2564" max="2564" width="13.625" style="2" customWidth="1"/>
+    <col min="2565" max="2565" width="10.625" style="2" customWidth="1"/>
+    <col min="2566" max="2566" width="22.5" style="2" customWidth="1"/>
+    <col min="2567" max="2567" width="13.75" style="2" customWidth="1"/>
+    <col min="2568" max="2568" width="38.5" style="2" customWidth="1"/>
+    <col min="2569" max="2816" width="9" style="2"/>
+    <col min="2817" max="2817" width="10.125" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="9.875" style="2" customWidth="1"/>
+    <col min="2819" max="2819" width="10.625" style="2" customWidth="1"/>
+    <col min="2820" max="2820" width="13.625" style="2" customWidth="1"/>
+    <col min="2821" max="2821" width="10.625" style="2" customWidth="1"/>
+    <col min="2822" max="2822" width="22.5" style="2" customWidth="1"/>
+    <col min="2823" max="2823" width="13.75" style="2" customWidth="1"/>
+    <col min="2824" max="2824" width="38.5" style="2" customWidth="1"/>
+    <col min="2825" max="3072" width="9" style="2"/>
+    <col min="3073" max="3073" width="10.125" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="9.875" style="2" customWidth="1"/>
+    <col min="3075" max="3075" width="10.625" style="2" customWidth="1"/>
+    <col min="3076" max="3076" width="13.625" style="2" customWidth="1"/>
+    <col min="3077" max="3077" width="10.625" style="2" customWidth="1"/>
+    <col min="3078" max="3078" width="22.5" style="2" customWidth="1"/>
+    <col min="3079" max="3079" width="13.75" style="2" customWidth="1"/>
+    <col min="3080" max="3080" width="38.5" style="2" customWidth="1"/>
+    <col min="3081" max="3328" width="9" style="2"/>
+    <col min="3329" max="3329" width="10.125" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="9.875" style="2" customWidth="1"/>
+    <col min="3331" max="3331" width="10.625" style="2" customWidth="1"/>
+    <col min="3332" max="3332" width="13.625" style="2" customWidth="1"/>
+    <col min="3333" max="3333" width="10.625" style="2" customWidth="1"/>
+    <col min="3334" max="3334" width="22.5" style="2" customWidth="1"/>
+    <col min="3335" max="3335" width="13.75" style="2" customWidth="1"/>
+    <col min="3336" max="3336" width="38.5" style="2" customWidth="1"/>
+    <col min="3337" max="3584" width="9" style="2"/>
+    <col min="3585" max="3585" width="10.125" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="9.875" style="2" customWidth="1"/>
+    <col min="3587" max="3587" width="10.625" style="2" customWidth="1"/>
+    <col min="3588" max="3588" width="13.625" style="2" customWidth="1"/>
+    <col min="3589" max="3589" width="10.625" style="2" customWidth="1"/>
+    <col min="3590" max="3590" width="22.5" style="2" customWidth="1"/>
+    <col min="3591" max="3591" width="13.75" style="2" customWidth="1"/>
+    <col min="3592" max="3592" width="38.5" style="2" customWidth="1"/>
+    <col min="3593" max="3840" width="9" style="2"/>
+    <col min="3841" max="3841" width="10.125" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="9.875" style="2" customWidth="1"/>
+    <col min="3843" max="3843" width="10.625" style="2" customWidth="1"/>
+    <col min="3844" max="3844" width="13.625" style="2" customWidth="1"/>
+    <col min="3845" max="3845" width="10.625" style="2" customWidth="1"/>
+    <col min="3846" max="3846" width="22.5" style="2" customWidth="1"/>
+    <col min="3847" max="3847" width="13.75" style="2" customWidth="1"/>
+    <col min="3848" max="3848" width="38.5" style="2" customWidth="1"/>
+    <col min="3849" max="4096" width="9" style="2"/>
+    <col min="4097" max="4097" width="10.125" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="9.875" style="2" customWidth="1"/>
+    <col min="4099" max="4099" width="10.625" style="2" customWidth="1"/>
+    <col min="4100" max="4100" width="13.625" style="2" customWidth="1"/>
+    <col min="4101" max="4101" width="10.625" style="2" customWidth="1"/>
+    <col min="4102" max="4102" width="22.5" style="2" customWidth="1"/>
+    <col min="4103" max="4103" width="13.75" style="2" customWidth="1"/>
+    <col min="4104" max="4104" width="38.5" style="2" customWidth="1"/>
+    <col min="4105" max="4352" width="9" style="2"/>
+    <col min="4353" max="4353" width="10.125" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="9.875" style="2" customWidth="1"/>
+    <col min="4355" max="4355" width="10.625" style="2" customWidth="1"/>
+    <col min="4356" max="4356" width="13.625" style="2" customWidth="1"/>
+    <col min="4357" max="4357" width="10.625" style="2" customWidth="1"/>
+    <col min="4358" max="4358" width="22.5" style="2" customWidth="1"/>
+    <col min="4359" max="4359" width="13.75" style="2" customWidth="1"/>
+    <col min="4360" max="4360" width="38.5" style="2" customWidth="1"/>
+    <col min="4361" max="4608" width="9" style="2"/>
+    <col min="4609" max="4609" width="10.125" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="9.875" style="2" customWidth="1"/>
+    <col min="4611" max="4611" width="10.625" style="2" customWidth="1"/>
+    <col min="4612" max="4612" width="13.625" style="2" customWidth="1"/>
+    <col min="4613" max="4613" width="10.625" style="2" customWidth="1"/>
+    <col min="4614" max="4614" width="22.5" style="2" customWidth="1"/>
+    <col min="4615" max="4615" width="13.75" style="2" customWidth="1"/>
+    <col min="4616" max="4616" width="38.5" style="2" customWidth="1"/>
+    <col min="4617" max="4864" width="9" style="2"/>
+    <col min="4865" max="4865" width="10.125" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="9.875" style="2" customWidth="1"/>
+    <col min="4867" max="4867" width="10.625" style="2" customWidth="1"/>
+    <col min="4868" max="4868" width="13.625" style="2" customWidth="1"/>
+    <col min="4869" max="4869" width="10.625" style="2" customWidth="1"/>
+    <col min="4870" max="4870" width="22.5" style="2" customWidth="1"/>
+    <col min="4871" max="4871" width="13.75" style="2" customWidth="1"/>
+    <col min="4872" max="4872" width="38.5" style="2" customWidth="1"/>
+    <col min="4873" max="5120" width="9" style="2"/>
+    <col min="5121" max="5121" width="10.125" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="9.875" style="2" customWidth="1"/>
+    <col min="5123" max="5123" width="10.625" style="2" customWidth="1"/>
+    <col min="5124" max="5124" width="13.625" style="2" customWidth="1"/>
+    <col min="5125" max="5125" width="10.625" style="2" customWidth="1"/>
+    <col min="5126" max="5126" width="22.5" style="2" customWidth="1"/>
+    <col min="5127" max="5127" width="13.75" style="2" customWidth="1"/>
+    <col min="5128" max="5128" width="38.5" style="2" customWidth="1"/>
+    <col min="5129" max="5376" width="9" style="2"/>
+    <col min="5377" max="5377" width="10.125" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="9.875" style="2" customWidth="1"/>
+    <col min="5379" max="5379" width="10.625" style="2" customWidth="1"/>
+    <col min="5380" max="5380" width="13.625" style="2" customWidth="1"/>
+    <col min="5381" max="5381" width="10.625" style="2" customWidth="1"/>
+    <col min="5382" max="5382" width="22.5" style="2" customWidth="1"/>
+    <col min="5383" max="5383" width="13.75" style="2" customWidth="1"/>
+    <col min="5384" max="5384" width="38.5" style="2" customWidth="1"/>
+    <col min="5385" max="5632" width="9" style="2"/>
+    <col min="5633" max="5633" width="10.125" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="9.875" style="2" customWidth="1"/>
+    <col min="5635" max="5635" width="10.625" style="2" customWidth="1"/>
+    <col min="5636" max="5636" width="13.625" style="2" customWidth="1"/>
+    <col min="5637" max="5637" width="10.625" style="2" customWidth="1"/>
+    <col min="5638" max="5638" width="22.5" style="2" customWidth="1"/>
+    <col min="5639" max="5639" width="13.75" style="2" customWidth="1"/>
+    <col min="5640" max="5640" width="38.5" style="2" customWidth="1"/>
+    <col min="5641" max="5888" width="9" style="2"/>
+    <col min="5889" max="5889" width="10.125" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="9.875" style="2" customWidth="1"/>
+    <col min="5891" max="5891" width="10.625" style="2" customWidth="1"/>
+    <col min="5892" max="5892" width="13.625" style="2" customWidth="1"/>
+    <col min="5893" max="5893" width="10.625" style="2" customWidth="1"/>
+    <col min="5894" max="5894" width="22.5" style="2" customWidth="1"/>
+    <col min="5895" max="5895" width="13.75" style="2" customWidth="1"/>
+    <col min="5896" max="5896" width="38.5" style="2" customWidth="1"/>
+    <col min="5897" max="6144" width="9" style="2"/>
+    <col min="6145" max="6145" width="10.125" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="9.875" style="2" customWidth="1"/>
+    <col min="6147" max="6147" width="10.625" style="2" customWidth="1"/>
+    <col min="6148" max="6148" width="13.625" style="2" customWidth="1"/>
+    <col min="6149" max="6149" width="10.625" style="2" customWidth="1"/>
+    <col min="6150" max="6150" width="22.5" style="2" customWidth="1"/>
+    <col min="6151" max="6151" width="13.75" style="2" customWidth="1"/>
+    <col min="6152" max="6152" width="38.5" style="2" customWidth="1"/>
+    <col min="6153" max="6400" width="9" style="2"/>
+    <col min="6401" max="6401" width="10.125" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="9.875" style="2" customWidth="1"/>
+    <col min="6403" max="6403" width="10.625" style="2" customWidth="1"/>
+    <col min="6404" max="6404" width="13.625" style="2" customWidth="1"/>
+    <col min="6405" max="6405" width="10.625" style="2" customWidth="1"/>
+    <col min="6406" max="6406" width="22.5" style="2" customWidth="1"/>
+    <col min="6407" max="6407" width="13.75" style="2" customWidth="1"/>
+    <col min="6408" max="6408" width="38.5" style="2" customWidth="1"/>
+    <col min="6409" max="6656" width="9" style="2"/>
+    <col min="6657" max="6657" width="10.125" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="9.875" style="2" customWidth="1"/>
+    <col min="6659" max="6659" width="10.625" style="2" customWidth="1"/>
+    <col min="6660" max="6660" width="13.625" style="2" customWidth="1"/>
+    <col min="6661" max="6661" width="10.625" style="2" customWidth="1"/>
+    <col min="6662" max="6662" width="22.5" style="2" customWidth="1"/>
+    <col min="6663" max="6663" width="13.75" style="2" customWidth="1"/>
+    <col min="6664" max="6664" width="38.5" style="2" customWidth="1"/>
+    <col min="6665" max="6912" width="9" style="2"/>
+    <col min="6913" max="6913" width="10.125" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="9.875" style="2" customWidth="1"/>
+    <col min="6915" max="6915" width="10.625" style="2" customWidth="1"/>
+    <col min="6916" max="6916" width="13.625" style="2" customWidth="1"/>
+    <col min="6917" max="6917" width="10.625" style="2" customWidth="1"/>
+    <col min="6918" max="6918" width="22.5" style="2" customWidth="1"/>
+    <col min="6919" max="6919" width="13.75" style="2" customWidth="1"/>
+    <col min="6920" max="6920" width="38.5" style="2" customWidth="1"/>
+    <col min="6921" max="7168" width="9" style="2"/>
+    <col min="7169" max="7169" width="10.125" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="9.875" style="2" customWidth="1"/>
+    <col min="7171" max="7171" width="10.625" style="2" customWidth="1"/>
+    <col min="7172" max="7172" width="13.625" style="2" customWidth="1"/>
+    <col min="7173" max="7173" width="10.625" style="2" customWidth="1"/>
+    <col min="7174" max="7174" width="22.5" style="2" customWidth="1"/>
+    <col min="7175" max="7175" width="13.75" style="2" customWidth="1"/>
+    <col min="7176" max="7176" width="38.5" style="2" customWidth="1"/>
+    <col min="7177" max="7424" width="9" style="2"/>
+    <col min="7425" max="7425" width="10.125" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="9.875" style="2" customWidth="1"/>
+    <col min="7427" max="7427" width="10.625" style="2" customWidth="1"/>
+    <col min="7428" max="7428" width="13.625" style="2" customWidth="1"/>
+    <col min="7429" max="7429" width="10.625" style="2" customWidth="1"/>
+    <col min="7430" max="7430" width="22.5" style="2" customWidth="1"/>
+    <col min="7431" max="7431" width="13.75" style="2" customWidth="1"/>
+    <col min="7432" max="7432" width="38.5" style="2" customWidth="1"/>
+    <col min="7433" max="7680" width="9" style="2"/>
+    <col min="7681" max="7681" width="10.125" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="9.875" style="2" customWidth="1"/>
+    <col min="7683" max="7683" width="10.625" style="2" customWidth="1"/>
+    <col min="7684" max="7684" width="13.625" style="2" customWidth="1"/>
+    <col min="7685" max="7685" width="10.625" style="2" customWidth="1"/>
+    <col min="7686" max="7686" width="22.5" style="2" customWidth="1"/>
+    <col min="7687" max="7687" width="13.75" style="2" customWidth="1"/>
+    <col min="7688" max="7688" width="38.5" style="2" customWidth="1"/>
+    <col min="7689" max="7936" width="9" style="2"/>
+    <col min="7937" max="7937" width="10.125" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="9.875" style="2" customWidth="1"/>
+    <col min="7939" max="7939" width="10.625" style="2" customWidth="1"/>
+    <col min="7940" max="7940" width="13.625" style="2" customWidth="1"/>
+    <col min="7941" max="7941" width="10.625" style="2" customWidth="1"/>
+    <col min="7942" max="7942" width="22.5" style="2" customWidth="1"/>
+    <col min="7943" max="7943" width="13.75" style="2" customWidth="1"/>
+    <col min="7944" max="7944" width="38.5" style="2" customWidth="1"/>
+    <col min="7945" max="8192" width="9" style="2"/>
+    <col min="8193" max="8193" width="10.125" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="9.875" style="2" customWidth="1"/>
+    <col min="8195" max="8195" width="10.625" style="2" customWidth="1"/>
+    <col min="8196" max="8196" width="13.625" style="2" customWidth="1"/>
+    <col min="8197" max="8197" width="10.625" style="2" customWidth="1"/>
+    <col min="8198" max="8198" width="22.5" style="2" customWidth="1"/>
+    <col min="8199" max="8199" width="13.75" style="2" customWidth="1"/>
+    <col min="8200" max="8200" width="38.5" style="2" customWidth="1"/>
+    <col min="8201" max="8448" width="9" style="2"/>
+    <col min="8449" max="8449" width="10.125" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="9.875" style="2" customWidth="1"/>
+    <col min="8451" max="8451" width="10.625" style="2" customWidth="1"/>
+    <col min="8452" max="8452" width="13.625" style="2" customWidth="1"/>
+    <col min="8453" max="8453" width="10.625" style="2" customWidth="1"/>
+    <col min="8454" max="8454" width="22.5" style="2" customWidth="1"/>
+    <col min="8455" max="8455" width="13.75" style="2" customWidth="1"/>
+    <col min="8456" max="8456" width="38.5" style="2" customWidth="1"/>
+    <col min="8457" max="8704" width="9" style="2"/>
+    <col min="8705" max="8705" width="10.125" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="9.875" style="2" customWidth="1"/>
+    <col min="8707" max="8707" width="10.625" style="2" customWidth="1"/>
+    <col min="8708" max="8708" width="13.625" style="2" customWidth="1"/>
+    <col min="8709" max="8709" width="10.625" style="2" customWidth="1"/>
+    <col min="8710" max="8710" width="22.5" style="2" customWidth="1"/>
+    <col min="8711" max="8711" width="13.75" style="2" customWidth="1"/>
+    <col min="8712" max="8712" width="38.5" style="2" customWidth="1"/>
+    <col min="8713" max="8960" width="9" style="2"/>
+    <col min="8961" max="8961" width="10.125" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="9.875" style="2" customWidth="1"/>
+    <col min="8963" max="8963" width="10.625" style="2" customWidth="1"/>
+    <col min="8964" max="8964" width="13.625" style="2" customWidth="1"/>
+    <col min="8965" max="8965" width="10.625" style="2" customWidth="1"/>
+    <col min="8966" max="8966" width="22.5" style="2" customWidth="1"/>
+    <col min="8967" max="8967" width="13.75" style="2" customWidth="1"/>
+    <col min="8968" max="8968" width="38.5" style="2" customWidth="1"/>
+    <col min="8969" max="9216" width="9" style="2"/>
+    <col min="9217" max="9217" width="10.125" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="9.875" style="2" customWidth="1"/>
+    <col min="9219" max="9219" width="10.625" style="2" customWidth="1"/>
+    <col min="9220" max="9220" width="13.625" style="2" customWidth="1"/>
+    <col min="9221" max="9221" width="10.625" style="2" customWidth="1"/>
+    <col min="9222" max="9222" width="22.5" style="2" customWidth="1"/>
+    <col min="9223" max="9223" width="13.75" style="2" customWidth="1"/>
+    <col min="9224" max="9224" width="38.5" style="2" customWidth="1"/>
+    <col min="9225" max="9472" width="9" style="2"/>
+    <col min="9473" max="9473" width="10.125" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="9.875" style="2" customWidth="1"/>
+    <col min="9475" max="9475" width="10.625" style="2" customWidth="1"/>
+    <col min="9476" max="9476" width="13.625" style="2" customWidth="1"/>
+    <col min="9477" max="9477" width="10.625" style="2" customWidth="1"/>
+    <col min="9478" max="9478" width="22.5" style="2" customWidth="1"/>
+    <col min="9479" max="9479" width="13.75" style="2" customWidth="1"/>
+    <col min="9480" max="9480" width="38.5" style="2" customWidth="1"/>
+    <col min="9481" max="9728" width="9" style="2"/>
+    <col min="9729" max="9729" width="10.125" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="9.875" style="2" customWidth="1"/>
+    <col min="9731" max="9731" width="10.625" style="2" customWidth="1"/>
+    <col min="9732" max="9732" width="13.625" style="2" customWidth="1"/>
+    <col min="9733" max="9733" width="10.625" style="2" customWidth="1"/>
+    <col min="9734" max="9734" width="22.5" style="2" customWidth="1"/>
+    <col min="9735" max="9735" width="13.75" style="2" customWidth="1"/>
+    <col min="9736" max="9736" width="38.5" style="2" customWidth="1"/>
+    <col min="9737" max="9984" width="9" style="2"/>
+    <col min="9985" max="9985" width="10.125" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="9.875" style="2" customWidth="1"/>
+    <col min="9987" max="9987" width="10.625" style="2" customWidth="1"/>
+    <col min="9988" max="9988" width="13.625" style="2" customWidth="1"/>
+    <col min="9989" max="9989" width="10.625" style="2" customWidth="1"/>
+    <col min="9990" max="9990" width="22.5" style="2" customWidth="1"/>
+    <col min="9991" max="9991" width="13.75" style="2" customWidth="1"/>
+    <col min="9992" max="9992" width="38.5" style="2" customWidth="1"/>
+    <col min="9993" max="10240" width="9" style="2"/>
+    <col min="10241" max="10241" width="10.125" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="9.875" style="2" customWidth="1"/>
+    <col min="10243" max="10243" width="10.625" style="2" customWidth="1"/>
+    <col min="10244" max="10244" width="13.625" style="2" customWidth="1"/>
+    <col min="10245" max="10245" width="10.625" style="2" customWidth="1"/>
+    <col min="10246" max="10246" width="22.5" style="2" customWidth="1"/>
+    <col min="10247" max="10247" width="13.75" style="2" customWidth="1"/>
+    <col min="10248" max="10248" width="38.5" style="2" customWidth="1"/>
+    <col min="10249" max="10496" width="9" style="2"/>
+    <col min="10497" max="10497" width="10.125" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="9.875" style="2" customWidth="1"/>
+    <col min="10499" max="10499" width="10.625" style="2" customWidth="1"/>
+    <col min="10500" max="10500" width="13.625" style="2" customWidth="1"/>
+    <col min="10501" max="10501" width="10.625" style="2" customWidth="1"/>
+    <col min="10502" max="10502" width="22.5" style="2" customWidth="1"/>
+    <col min="10503" max="10503" width="13.75" style="2" customWidth="1"/>
+    <col min="10504" max="10504" width="38.5" style="2" customWidth="1"/>
+    <col min="10505" max="10752" width="9" style="2"/>
+    <col min="10753" max="10753" width="10.125" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="9.875" style="2" customWidth="1"/>
+    <col min="10755" max="10755" width="10.625" style="2" customWidth="1"/>
+    <col min="10756" max="10756" width="13.625" style="2" customWidth="1"/>
+    <col min="10757" max="10757" width="10.625" style="2" customWidth="1"/>
+    <col min="10758" max="10758" width="22.5" style="2" customWidth="1"/>
+    <col min="10759" max="10759" width="13.75" style="2" customWidth="1"/>
+    <col min="10760" max="10760" width="38.5" style="2" customWidth="1"/>
+    <col min="10761" max="11008" width="9" style="2"/>
+    <col min="11009" max="11009" width="10.125" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="9.875" style="2" customWidth="1"/>
+    <col min="11011" max="11011" width="10.625" style="2" customWidth="1"/>
+    <col min="11012" max="11012" width="13.625" style="2" customWidth="1"/>
+    <col min="11013" max="11013" width="10.625" style="2" customWidth="1"/>
+    <col min="11014" max="11014" width="22.5" style="2" customWidth="1"/>
+    <col min="11015" max="11015" width="13.75" style="2" customWidth="1"/>
+    <col min="11016" max="11016" width="38.5" style="2" customWidth="1"/>
+    <col min="11017" max="11264" width="9" style="2"/>
+    <col min="11265" max="11265" width="10.125" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="9.875" style="2" customWidth="1"/>
+    <col min="11267" max="11267" width="10.625" style="2" customWidth="1"/>
+    <col min="11268" max="11268" width="13.625" style="2" customWidth="1"/>
+    <col min="11269" max="11269" width="10.625" style="2" customWidth="1"/>
+    <col min="11270" max="11270" width="22.5" style="2" customWidth="1"/>
+    <col min="11271" max="11271" width="13.75" style="2" customWidth="1"/>
+    <col min="11272" max="11272" width="38.5" style="2" customWidth="1"/>
+    <col min="11273" max="11520" width="9" style="2"/>
+    <col min="11521" max="11521" width="10.125" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="9.875" style="2" customWidth="1"/>
+    <col min="11523" max="11523" width="10.625" style="2" customWidth="1"/>
+    <col min="11524" max="11524" width="13.625" style="2" customWidth="1"/>
+    <col min="11525" max="11525" width="10.625" style="2" customWidth="1"/>
+    <col min="11526" max="11526" width="22.5" style="2" customWidth="1"/>
+    <col min="11527" max="11527" width="13.75" style="2" customWidth="1"/>
+    <col min="11528" max="11528" width="38.5" style="2" customWidth="1"/>
+    <col min="11529" max="11776" width="9" style="2"/>
+    <col min="11777" max="11777" width="10.125" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="9.875" style="2" customWidth="1"/>
+    <col min="11779" max="11779" width="10.625" style="2" customWidth="1"/>
+    <col min="11780" max="11780" width="13.625" style="2" customWidth="1"/>
+    <col min="11781" max="11781" width="10.625" style="2" customWidth="1"/>
+    <col min="11782" max="11782" width="22.5" style="2" customWidth="1"/>
+    <col min="11783" max="11783" width="13.75" style="2" customWidth="1"/>
+    <col min="11784" max="11784" width="38.5" style="2" customWidth="1"/>
+    <col min="11785" max="12032" width="9" style="2"/>
+    <col min="12033" max="12033" width="10.125" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="9.875" style="2" customWidth="1"/>
+    <col min="12035" max="12035" width="10.625" style="2" customWidth="1"/>
+    <col min="12036" max="12036" width="13.625" style="2" customWidth="1"/>
+    <col min="12037" max="12037" width="10.625" style="2" customWidth="1"/>
+    <col min="12038" max="12038" width="22.5" style="2" customWidth="1"/>
+    <col min="12039" max="12039" width="13.75" style="2" customWidth="1"/>
+    <col min="12040" max="12040" width="38.5" style="2" customWidth="1"/>
+    <col min="12041" max="12288" width="9" style="2"/>
+    <col min="12289" max="12289" width="10.125" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="9.875" style="2" customWidth="1"/>
+    <col min="12291" max="12291" width="10.625" style="2" customWidth="1"/>
+    <col min="12292" max="12292" width="13.625" style="2" customWidth="1"/>
+    <col min="12293" max="12293" width="10.625" style="2" customWidth="1"/>
+    <col min="12294" max="12294" width="22.5" style="2" customWidth="1"/>
+    <col min="12295" max="12295" width="13.75" style="2" customWidth="1"/>
+    <col min="12296" max="12296" width="38.5" style="2" customWidth="1"/>
+    <col min="12297" max="12544" width="9" style="2"/>
+    <col min="12545" max="12545" width="10.125" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="9.875" style="2" customWidth="1"/>
+    <col min="12547" max="12547" width="10.625" style="2" customWidth="1"/>
+    <col min="12548" max="12548" width="13.625" style="2" customWidth="1"/>
+    <col min="12549" max="12549" width="10.625" style="2" customWidth="1"/>
+    <col min="12550" max="12550" width="22.5" style="2" customWidth="1"/>
+    <col min="12551" max="12551" width="13.75" style="2" customWidth="1"/>
+    <col min="12552" max="12552" width="38.5" style="2" customWidth="1"/>
+    <col min="12553" max="12800" width="9" style="2"/>
+    <col min="12801" max="12801" width="10.125" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="9.875" style="2" customWidth="1"/>
+    <col min="12803" max="12803" width="10.625" style="2" customWidth="1"/>
+    <col min="12804" max="12804" width="13.625" style="2" customWidth="1"/>
+    <col min="12805" max="12805" width="10.625" style="2" customWidth="1"/>
+    <col min="12806" max="12806" width="22.5" style="2" customWidth="1"/>
+    <col min="12807" max="12807" width="13.75" style="2" customWidth="1"/>
+    <col min="12808" max="12808" width="38.5" style="2" customWidth="1"/>
+    <col min="12809" max="13056" width="9" style="2"/>
+    <col min="13057" max="13057" width="10.125" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="9.875" style="2" customWidth="1"/>
+    <col min="13059" max="13059" width="10.625" style="2" customWidth="1"/>
+    <col min="13060" max="13060" width="13.625" style="2" customWidth="1"/>
+    <col min="13061" max="13061" width="10.625" style="2" customWidth="1"/>
+    <col min="13062" max="13062" width="22.5" style="2" customWidth="1"/>
+    <col min="13063" max="13063" width="13.75" style="2" customWidth="1"/>
+    <col min="13064" max="13064" width="38.5" style="2" customWidth="1"/>
+    <col min="13065" max="13312" width="9" style="2"/>
+    <col min="13313" max="13313" width="10.125" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="9.875" style="2" customWidth="1"/>
+    <col min="13315" max="13315" width="10.625" style="2" customWidth="1"/>
+    <col min="13316" max="13316" width="13.625" style="2" customWidth="1"/>
+    <col min="13317" max="13317" width="10.625" style="2" customWidth="1"/>
+    <col min="13318" max="13318" width="22.5" style="2" customWidth="1"/>
+    <col min="13319" max="13319" width="13.75" style="2" customWidth="1"/>
+    <col min="13320" max="13320" width="38.5" style="2" customWidth="1"/>
+    <col min="13321" max="13568" width="9" style="2"/>
+    <col min="13569" max="13569" width="10.125" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="9.875" style="2" customWidth="1"/>
+    <col min="13571" max="13571" width="10.625" style="2" customWidth="1"/>
+    <col min="13572" max="13572" width="13.625" style="2" customWidth="1"/>
+    <col min="13573" max="13573" width="10.625" style="2" customWidth="1"/>
+    <col min="13574" max="13574" width="22.5" style="2" customWidth="1"/>
+    <col min="13575" max="13575" width="13.75" style="2" customWidth="1"/>
+    <col min="13576" max="13576" width="38.5" style="2" customWidth="1"/>
+    <col min="13577" max="13824" width="9" style="2"/>
+    <col min="13825" max="13825" width="10.125" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="9.875" style="2" customWidth="1"/>
+    <col min="13827" max="13827" width="10.625" style="2" customWidth="1"/>
+    <col min="13828" max="13828" width="13.625" style="2" customWidth="1"/>
+    <col min="13829" max="13829" width="10.625" style="2" customWidth="1"/>
+    <col min="13830" max="13830" width="22.5" style="2" customWidth="1"/>
+    <col min="13831" max="13831" width="13.75" style="2" customWidth="1"/>
+    <col min="13832" max="13832" width="38.5" style="2" customWidth="1"/>
+    <col min="13833" max="14080" width="9" style="2"/>
+    <col min="14081" max="14081" width="10.125" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="9.875" style="2" customWidth="1"/>
+    <col min="14083" max="14083" width="10.625" style="2" customWidth="1"/>
+    <col min="14084" max="14084" width="13.625" style="2" customWidth="1"/>
+    <col min="14085" max="14085" width="10.625" style="2" customWidth="1"/>
+    <col min="14086" max="14086" width="22.5" style="2" customWidth="1"/>
+    <col min="14087" max="14087" width="13.75" style="2" customWidth="1"/>
+    <col min="14088" max="14088" width="38.5" style="2" customWidth="1"/>
+    <col min="14089" max="14336" width="9" style="2"/>
+    <col min="14337" max="14337" width="10.125" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="9.875" style="2" customWidth="1"/>
+    <col min="14339" max="14339" width="10.625" style="2" customWidth="1"/>
+    <col min="14340" max="14340" width="13.625" style="2" customWidth="1"/>
+    <col min="14341" max="14341" width="10.625" style="2" customWidth="1"/>
+    <col min="14342" max="14342" width="22.5" style="2" customWidth="1"/>
+    <col min="14343" max="14343" width="13.75" style="2" customWidth="1"/>
+    <col min="14344" max="14344" width="38.5" style="2" customWidth="1"/>
+    <col min="14345" max="14592" width="9" style="2"/>
+    <col min="14593" max="14593" width="10.125" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="9.875" style="2" customWidth="1"/>
+    <col min="14595" max="14595" width="10.625" style="2" customWidth="1"/>
+    <col min="14596" max="14596" width="13.625" style="2" customWidth="1"/>
+    <col min="14597" max="14597" width="10.625" style="2" customWidth="1"/>
+    <col min="14598" max="14598" width="22.5" style="2" customWidth="1"/>
+    <col min="14599" max="14599" width="13.75" style="2" customWidth="1"/>
+    <col min="14600" max="14600" width="38.5" style="2" customWidth="1"/>
+    <col min="14601" max="14848" width="9" style="2"/>
+    <col min="14849" max="14849" width="10.125" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="9.875" style="2" customWidth="1"/>
+    <col min="14851" max="14851" width="10.625" style="2" customWidth="1"/>
+    <col min="14852" max="14852" width="13.625" style="2" customWidth="1"/>
+    <col min="14853" max="14853" width="10.625" style="2" customWidth="1"/>
+    <col min="14854" max="14854" width="22.5" style="2" customWidth="1"/>
+    <col min="14855" max="14855" width="13.75" style="2" customWidth="1"/>
+    <col min="14856" max="14856" width="38.5" style="2" customWidth="1"/>
+    <col min="14857" max="15104" width="9" style="2"/>
+    <col min="15105" max="15105" width="10.125" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="9.875" style="2" customWidth="1"/>
+    <col min="15107" max="15107" width="10.625" style="2" customWidth="1"/>
+    <col min="15108" max="15108" width="13.625" style="2" customWidth="1"/>
+    <col min="15109" max="15109" width="10.625" style="2" customWidth="1"/>
+    <col min="15110" max="15110" width="22.5" style="2" customWidth="1"/>
+    <col min="15111" max="15111" width="13.75" style="2" customWidth="1"/>
+    <col min="15112" max="15112" width="38.5" style="2" customWidth="1"/>
+    <col min="15113" max="15360" width="9" style="2"/>
+    <col min="15361" max="15361" width="10.125" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="9.875" style="2" customWidth="1"/>
+    <col min="15363" max="15363" width="10.625" style="2" customWidth="1"/>
+    <col min="15364" max="15364" width="13.625" style="2" customWidth="1"/>
+    <col min="15365" max="15365" width="10.625" style="2" customWidth="1"/>
+    <col min="15366" max="15366" width="22.5" style="2" customWidth="1"/>
+    <col min="15367" max="15367" width="13.75" style="2" customWidth="1"/>
+    <col min="15368" max="15368" width="38.5" style="2" customWidth="1"/>
+    <col min="15369" max="15616" width="9" style="2"/>
+    <col min="15617" max="15617" width="10.125" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="9.875" style="2" customWidth="1"/>
+    <col min="15619" max="15619" width="10.625" style="2" customWidth="1"/>
+    <col min="15620" max="15620" width="13.625" style="2" customWidth="1"/>
+    <col min="15621" max="15621" width="10.625" style="2" customWidth="1"/>
+    <col min="15622" max="15622" width="22.5" style="2" customWidth="1"/>
+    <col min="15623" max="15623" width="13.75" style="2" customWidth="1"/>
+    <col min="15624" max="15624" width="38.5" style="2" customWidth="1"/>
+    <col min="15625" max="15872" width="9" style="2"/>
+    <col min="15873" max="15873" width="10.125" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="9.875" style="2" customWidth="1"/>
+    <col min="15875" max="15875" width="10.625" style="2" customWidth="1"/>
+    <col min="15876" max="15876" width="13.625" style="2" customWidth="1"/>
+    <col min="15877" max="15877" width="10.625" style="2" customWidth="1"/>
+    <col min="15878" max="15878" width="22.5" style="2" customWidth="1"/>
+    <col min="15879" max="15879" width="13.75" style="2" customWidth="1"/>
+    <col min="15880" max="15880" width="38.5" style="2" customWidth="1"/>
+    <col min="15881" max="16128" width="9" style="2"/>
+    <col min="16129" max="16129" width="10.125" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="9.875" style="2" customWidth="1"/>
+    <col min="16131" max="16131" width="10.625" style="2" customWidth="1"/>
+    <col min="16132" max="16132" width="13.625" style="2" customWidth="1"/>
+    <col min="16133" max="16133" width="10.625" style="2" customWidth="1"/>
+    <col min="16134" max="16134" width="22.5" style="2" customWidth="1"/>
+    <col min="16135" max="16135" width="13.75" style="2" customWidth="1"/>
+    <col min="16136" max="16136" width="38.5" style="2" customWidth="1"/>
+    <col min="16137" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
+      <c r="E1" s="11" t="s">
+        <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="F2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
+    <row r="4" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12876,818 +14050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="S25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="25" spans="19:19" x14ac:dyDescent="0.15">
-      <c r="S25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="3" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="10.125" style="1" customWidth="1"/>
-    <col min="258" max="258" width="9.875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="10.625" style="1" customWidth="1"/>
-    <col min="260" max="260" width="13.625" style="1" customWidth="1"/>
-    <col min="261" max="261" width="10.625" style="1" customWidth="1"/>
-    <col min="262" max="262" width="22.5" style="1" customWidth="1"/>
-    <col min="263" max="263" width="13.75" style="1" customWidth="1"/>
-    <col min="264" max="264" width="38.5" style="1" customWidth="1"/>
-    <col min="265" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="10.125" style="1" customWidth="1"/>
-    <col min="514" max="514" width="9.875" style="1" customWidth="1"/>
-    <col min="515" max="515" width="10.625" style="1" customWidth="1"/>
-    <col min="516" max="516" width="13.625" style="1" customWidth="1"/>
-    <col min="517" max="517" width="10.625" style="1" customWidth="1"/>
-    <col min="518" max="518" width="22.5" style="1" customWidth="1"/>
-    <col min="519" max="519" width="13.75" style="1" customWidth="1"/>
-    <col min="520" max="520" width="38.5" style="1" customWidth="1"/>
-    <col min="521" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="10.125" style="1" customWidth="1"/>
-    <col min="770" max="770" width="9.875" style="1" customWidth="1"/>
-    <col min="771" max="771" width="10.625" style="1" customWidth="1"/>
-    <col min="772" max="772" width="13.625" style="1" customWidth="1"/>
-    <col min="773" max="773" width="10.625" style="1" customWidth="1"/>
-    <col min="774" max="774" width="22.5" style="1" customWidth="1"/>
-    <col min="775" max="775" width="13.75" style="1" customWidth="1"/>
-    <col min="776" max="776" width="38.5" style="1" customWidth="1"/>
-    <col min="777" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="10.125" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="9.875" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="10.625" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="13.625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="10.625" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="22.5" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="13.75" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="38.5" style="1" customWidth="1"/>
-    <col min="1033" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="10.125" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="9.875" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="10.625" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="13.625" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="10.625" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="22.5" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="13.75" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="38.5" style="1" customWidth="1"/>
-    <col min="1289" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="10.125" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="9.875" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="10.625" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="13.625" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="10.625" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="22.5" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="13.75" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="38.5" style="1" customWidth="1"/>
-    <col min="1545" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="10.125" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="9.875" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="10.625" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="13.625" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="10.625" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="22.5" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="13.75" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="38.5" style="1" customWidth="1"/>
-    <col min="1801" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="10.125" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="9.875" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="10.625" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="13.625" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="10.625" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="22.5" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="13.75" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="38.5" style="1" customWidth="1"/>
-    <col min="2057" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="10.125" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="9.875" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="10.625" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="13.625" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="10.625" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="22.5" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="13.75" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="38.5" style="1" customWidth="1"/>
-    <col min="2313" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="10.125" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="9.875" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="10.625" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="13.625" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="10.625" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="22.5" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="13.75" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="38.5" style="1" customWidth="1"/>
-    <col min="2569" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="10.125" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="9.875" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="10.625" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="13.625" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="10.625" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="22.5" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="13.75" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="38.5" style="1" customWidth="1"/>
-    <col min="2825" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="10.125" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="9.875" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="10.625" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="13.625" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="10.625" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="22.5" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="13.75" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="38.5" style="1" customWidth="1"/>
-    <col min="3081" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="10.125" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="9.875" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="10.625" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="13.625" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="10.625" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="22.5" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="13.75" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="38.5" style="1" customWidth="1"/>
-    <col min="3337" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="10.125" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="9.875" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="10.625" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="13.625" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="10.625" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="22.5" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="13.75" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="38.5" style="1" customWidth="1"/>
-    <col min="3593" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="10.125" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="9.875" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="10.625" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="13.625" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="10.625" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="22.5" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="13.75" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="38.5" style="1" customWidth="1"/>
-    <col min="3849" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="10.125" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="9.875" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="10.625" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="13.625" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="10.625" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="22.5" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="13.75" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="38.5" style="1" customWidth="1"/>
-    <col min="4105" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="10.125" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="9.875" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="10.625" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="13.625" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="10.625" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="22.5" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="13.75" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="38.5" style="1" customWidth="1"/>
-    <col min="4361" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="10.125" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="9.875" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="10.625" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="13.625" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="10.625" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="22.5" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="13.75" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="38.5" style="1" customWidth="1"/>
-    <col min="4617" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="10.125" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="9.875" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="10.625" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="13.625" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="10.625" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="22.5" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="13.75" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="38.5" style="1" customWidth="1"/>
-    <col min="4873" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="10.125" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="9.875" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="10.625" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="13.625" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="10.625" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="22.5" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="13.75" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="38.5" style="1" customWidth="1"/>
-    <col min="5129" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="10.125" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="9.875" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="10.625" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="13.625" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="10.625" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="22.5" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="13.75" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="38.5" style="1" customWidth="1"/>
-    <col min="5385" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="10.125" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="9.875" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="10.625" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="13.625" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="10.625" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="22.5" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="13.75" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="38.5" style="1" customWidth="1"/>
-    <col min="5641" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="10.125" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="9.875" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="10.625" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="13.625" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="10.625" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="22.5" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="13.75" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="38.5" style="1" customWidth="1"/>
-    <col min="5897" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="10.125" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="9.875" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="10.625" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="13.625" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="10.625" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="22.5" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="13.75" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="38.5" style="1" customWidth="1"/>
-    <col min="6153" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="10.125" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="9.875" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="10.625" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="13.625" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="10.625" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="22.5" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="13.75" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="38.5" style="1" customWidth="1"/>
-    <col min="6409" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="10.125" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="9.875" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="10.625" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="13.625" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="10.625" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="22.5" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="13.75" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="38.5" style="1" customWidth="1"/>
-    <col min="6665" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="10.125" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="9.875" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="10.625" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="13.625" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="10.625" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="22.5" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="13.75" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="38.5" style="1" customWidth="1"/>
-    <col min="6921" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="10.125" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="9.875" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="10.625" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="13.625" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="10.625" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="22.5" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="13.75" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="38.5" style="1" customWidth="1"/>
-    <col min="7177" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="10.125" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="9.875" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="10.625" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="13.625" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="10.625" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="22.5" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="13.75" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="38.5" style="1" customWidth="1"/>
-    <col min="7433" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="10.125" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="9.875" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="10.625" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="13.625" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="10.625" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="22.5" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="13.75" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="38.5" style="1" customWidth="1"/>
-    <col min="7689" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="10.125" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="9.875" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="10.625" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="13.625" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="10.625" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="22.5" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="13.75" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="38.5" style="1" customWidth="1"/>
-    <col min="7945" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="10.125" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="9.875" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="10.625" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="13.625" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="10.625" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="22.5" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="13.75" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="38.5" style="1" customWidth="1"/>
-    <col min="8201" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="10.125" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="9.875" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="10.625" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="13.625" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="10.625" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="22.5" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="13.75" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="38.5" style="1" customWidth="1"/>
-    <col min="8457" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="10.125" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="9.875" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="10.625" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="13.625" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="10.625" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="22.5" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="13.75" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="38.5" style="1" customWidth="1"/>
-    <col min="8713" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="10.125" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="9.875" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="10.625" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="13.625" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="10.625" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="22.5" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="13.75" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="38.5" style="1" customWidth="1"/>
-    <col min="8969" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="10.125" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="9.875" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="10.625" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="13.625" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="10.625" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="22.5" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="13.75" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="38.5" style="1" customWidth="1"/>
-    <col min="9225" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="10.125" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="9.875" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="10.625" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="13.625" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="10.625" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="22.5" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="13.75" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="38.5" style="1" customWidth="1"/>
-    <col min="9481" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="10.125" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="9.875" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="10.625" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="13.625" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="10.625" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="22.5" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="13.75" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="38.5" style="1" customWidth="1"/>
-    <col min="9737" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="10.125" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="9.875" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="10.625" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="13.625" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="10.625" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="22.5" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="13.75" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="38.5" style="1" customWidth="1"/>
-    <col min="9993" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="10.125" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="9.875" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="10.625" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="13.625" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="10.625" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="22.5" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="13.75" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="38.5" style="1" customWidth="1"/>
-    <col min="10249" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="10.125" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="9.875" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="10.625" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="13.625" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="10.625" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="22.5" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="13.75" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="38.5" style="1" customWidth="1"/>
-    <col min="10505" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="10.125" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="9.875" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="10.625" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="13.625" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="10.625" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="22.5" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="13.75" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="38.5" style="1" customWidth="1"/>
-    <col min="10761" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="10.125" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="9.875" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="10.625" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="13.625" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="10.625" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="22.5" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="13.75" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="38.5" style="1" customWidth="1"/>
-    <col min="11017" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="10.125" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="9.875" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="10.625" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="13.625" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="10.625" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="22.5" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="13.75" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="38.5" style="1" customWidth="1"/>
-    <col min="11273" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="10.125" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="9.875" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="10.625" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="13.625" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="10.625" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="22.5" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="13.75" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="38.5" style="1" customWidth="1"/>
-    <col min="11529" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="10.125" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="9.875" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="10.625" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="13.625" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="10.625" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="22.5" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="13.75" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="38.5" style="1" customWidth="1"/>
-    <col min="11785" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="10.125" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="9.875" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="10.625" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="13.625" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="10.625" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="22.5" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="13.75" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="38.5" style="1" customWidth="1"/>
-    <col min="12041" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="10.125" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="9.875" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="10.625" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="13.625" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="10.625" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="22.5" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="13.75" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="38.5" style="1" customWidth="1"/>
-    <col min="12297" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="10.125" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="9.875" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="10.625" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="13.625" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="10.625" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="22.5" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="13.75" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="38.5" style="1" customWidth="1"/>
-    <col min="12553" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="10.125" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="9.875" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="10.625" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="13.625" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="10.625" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="22.5" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="13.75" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="38.5" style="1" customWidth="1"/>
-    <col min="12809" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="10.125" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="9.875" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="10.625" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="13.625" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="10.625" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="22.5" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="13.75" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="38.5" style="1" customWidth="1"/>
-    <col min="13065" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="10.125" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="9.875" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="10.625" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="13.625" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="10.625" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="22.5" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="13.75" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="38.5" style="1" customWidth="1"/>
-    <col min="13321" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="10.125" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="9.875" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="10.625" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="13.625" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="10.625" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="22.5" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="13.75" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="38.5" style="1" customWidth="1"/>
-    <col min="13577" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="10.125" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="9.875" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="10.625" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="13.625" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="10.625" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="22.5" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="13.75" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="38.5" style="1" customWidth="1"/>
-    <col min="13833" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="10.125" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="9.875" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="10.625" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="13.625" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="10.625" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="22.5" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="13.75" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="38.5" style="1" customWidth="1"/>
-    <col min="14089" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="10.125" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="9.875" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="10.625" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="13.625" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="10.625" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="22.5" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="13.75" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="38.5" style="1" customWidth="1"/>
-    <col min="14345" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="10.125" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="9.875" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="10.625" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="13.625" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="10.625" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="22.5" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="13.75" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="38.5" style="1" customWidth="1"/>
-    <col min="14601" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="10.125" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="9.875" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="10.625" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="13.625" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="10.625" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="22.5" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="13.75" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="38.5" style="1" customWidth="1"/>
-    <col min="14857" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="10.125" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="9.875" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="10.625" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="13.625" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="10.625" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="22.5" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="13.75" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="38.5" style="1" customWidth="1"/>
-    <col min="15113" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="10.125" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="9.875" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="10.625" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="13.625" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="10.625" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="22.5" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="13.75" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="38.5" style="1" customWidth="1"/>
-    <col min="15369" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="10.125" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="9.875" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="10.625" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="13.625" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="10.625" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="22.5" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="13.75" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="38.5" style="1" customWidth="1"/>
-    <col min="15625" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="10.125" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="9.875" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="10.625" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="13.625" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="10.625" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="22.5" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="13.75" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="38.5" style="1" customWidth="1"/>
-    <col min="15881" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="10.125" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="9.875" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="10.625" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="13.625" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="10.625" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="22.5" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="13.75" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="38.5" style="1" customWidth="1"/>
-    <col min="16137" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13701,12 +14069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13716,7 +14084,7 @@
   <sheetData>
     <row r="3" spans="14:14" x14ac:dyDescent="0.15">
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
